--- a/doc/前端契约.xlsx
+++ b/doc/前端契约.xlsx
@@ -66,12 +66,237 @@
         </r>
       </text>
     </comment>
+    <comment ref="D24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D62" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D71" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D79" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D85" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D101" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D104" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D119" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D124" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>T:必须项目
+F:非必须项目</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="174">
   <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +416,560 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;act_list&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮食知时节，分享农家生态菜肴纯正的口味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬果采摘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isnew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是新活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端会默认置顶最靠前的至多6个新活动，然后在往期活动中展示所有活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>371*248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issoldout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否抢光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动是否已经抢光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验活动列表请求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验活动详情请求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon_list</t>
+  </si>
+  <si>
+    <t>优惠券列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券描述信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠好礼 那一段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cimg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三块的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clist&lt;coupon_list&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qalist&lt;qa_list&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qa_list</t>
+  </si>
+  <si>
+    <t>qa_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问答列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券图片链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券跳转链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qdesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享活动列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tlist&lt;tab_list&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab_list</t>
+  </si>
+  <si>
+    <t>tab_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plist&lt;f_list&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_list</t>
+  </si>
+  <si>
+    <t>f_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享活动列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页栏列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页栏类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页栏名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动排行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认展示权重最高的前6个(在右侧)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试吃内容以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issoldout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否卖光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1为卖光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有则不显示标签,内容为'最新分享','免费试吃'等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享活动详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享活动id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验活动id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tlen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动名额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aabs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ainfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imglist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多活动图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slist&lt;signup_list&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signup_list</t>
+  </si>
+  <si>
+    <t>clist&lt;comment_list&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_list</t>
+  </si>
+  <si>
+    <t>评论列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名人图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名人昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论人图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论人昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,25 +1144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -403,15 +1170,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -430,6 +1188,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -733,16 +1516,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E129" sqref="A129:E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="8.25" customWidth="1"/>
     <col min="5" max="5" width="107.875" customWidth="1"/>
   </cols>
@@ -751,216 +1535,1644 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:5" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="10" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+    </row>
+    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+    </row>
+    <row r="74" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="78" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="84" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A87" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A92" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A102" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" s="25"/>
+    </row>
+    <row r="103" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A103" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="21"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="23"/>
+    </row>
+    <row r="104" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A105" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A106" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="118" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A118" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="23"/>
+    </row>
+    <row r="119" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A119" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A120" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A121" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="123" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A123" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="23"/>
+    </row>
+    <row r="124" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A125" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A126" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A127" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A128" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A129" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E129" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="23">
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/前端契约.xlsx
+++ b/doc/前端契约.xlsx
@@ -475,10 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>371*248</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>issoldout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -974,6 +970,10 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>371*371</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1190,11 +1190,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1211,9 +1209,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E129" sqref="A129:E129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1535,8 +1535,8 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -1743,8 +1743,8 @@
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>15</v>
@@ -1755,7 +1755,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="3"/>
@@ -1933,7 +1933,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -1955,30 +1955,30 @@
     </row>
     <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>44</v>
@@ -1989,8 +1989,8 @@
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
         <v>15</v>
@@ -2001,7 +2001,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="3"/>
@@ -2055,18 +2055,18 @@
     </row>
     <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
@@ -2096,13 +2096,13 @@
     </row>
     <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>29</v>
@@ -2111,13 +2111,13 @@
     </row>
     <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>29</v>
@@ -2126,13 +2126,13 @@
     </row>
     <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>29</v>
@@ -2141,65 +2141,65 @@
     </row>
     <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="D51" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="10" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="24" t="s">
+      <c r="B53" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="C53" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>70</v>
-      </c>
       <c r="D53" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="24" t="s">
-        <v>74</v>
+      <c r="A54" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B54" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="D54" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="E54" s="10"/>
     </row>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -2233,13 +2233,13 @@
     </row>
     <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>29</v>
@@ -2248,13 +2248,13 @@
     </row>
     <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>29</v>
@@ -2266,7 +2266,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>29</v>
@@ -2306,13 +2306,13 @@
     </row>
     <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>29</v>
@@ -2323,8 +2323,8 @@
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
         <v>15</v>
@@ -2335,7 +2335,7 @@
         <v>11</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="3"/>
@@ -2424,13 +2424,13 @@
     </row>
     <row r="75" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>29</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="76" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>29</v>
@@ -2457,7 +2457,7 @@
         <v>27</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -2482,13 +2482,13 @@
     </row>
     <row r="80" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>29</v>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="81" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>29</v>
@@ -2512,13 +2512,13 @@
     </row>
     <row r="82" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>29</v>
@@ -2530,7 +2530,7 @@
         <v>27</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
@@ -2555,30 +2555,30 @@
     </row>
     <row r="86" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C86" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E86" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>29</v>
@@ -2587,13 +2587,13 @@
     </row>
     <row r="88" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>29</v>
@@ -2602,13 +2602,13 @@
     </row>
     <row r="89" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>29</v>
@@ -2616,92 +2616,92 @@
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C90" s="24" t="s">
+      <c r="D90" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E90" s="10"/>
-    </row>
-    <row r="91" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A91" s="24" t="s">
+      <c r="B91" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" s="24" t="s">
+      <c r="D91" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A92" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E91" s="10"/>
-    </row>
-    <row r="92" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A92" s="24" t="s">
+      <c r="B92" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="24" t="s">
+      <c r="D92" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="E92" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E92" s="10" t="s">
+    </row>
+    <row r="93" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="24" t="s">
+      <c r="B93" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" s="24" t="s">
+      <c r="D93" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="E93" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E93" s="10" t="s">
+    </row>
+    <row r="94" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A94" s="24" t="s">
+      <c r="B94" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="24" t="s">
+      <c r="D94" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="E94" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
         <v>15</v>
@@ -2712,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="3"/>
@@ -2766,18 +2766,18 @@
     </row>
     <row r="102" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E102" s="25"/>
+      <c r="D102" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="18"/>
     </row>
     <row r="103" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
@@ -2807,13 +2807,13 @@
     </row>
     <row r="105" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>29</v>
@@ -2822,13 +2822,13 @@
     </row>
     <row r="106" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>29</v>
@@ -2837,153 +2837,153 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="D107" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E107" s="10"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="D109" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E109" s="10"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="D110" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E110" s="10"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="D111" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E111" s="10"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="D112" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E112" s="10"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="D113" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E113" s="10"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="C114" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="D114" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="C115" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="C116" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="D116" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E116" s="10"/>
     </row>
@@ -2992,7 +2992,7 @@
         <v>27</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
@@ -3017,13 +3017,13 @@
     </row>
     <row r="120" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>29</v>
@@ -3032,13 +3032,13 @@
     </row>
     <row r="121" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A121" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>29</v>
@@ -3050,7 +3050,7 @@
         <v>27</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
@@ -3075,13 +3075,13 @@
     </row>
     <row r="125" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>29</v>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="126" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A126" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>29</v>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="127" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A127" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>29</v>
@@ -3120,13 +3120,13 @@
     </row>
     <row r="128" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>29</v>
@@ -3134,22 +3134,36 @@
       <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A129" s="24" t="s">
+      <c r="A129" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C129" s="24" t="s">
+      <c r="D129" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="E129" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B103:E103"/>
     <mergeCell ref="B118:E118"/>
@@ -3159,20 +3173,6 @@
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/前端契约.xlsx
+++ b/doc/前端契约.xlsx
@@ -261,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D119" authorId="0">
+    <comment ref="D120" authorId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D124" authorId="0">
+    <comment ref="D125" authorId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="178">
   <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -974,6 +974,22 @@
   </si>
   <si>
     <t>371*371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,6 +1210,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1208,12 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1516,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1535,8 +1551,8 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -1546,10 +1562,10 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
@@ -1612,10 +1628,10 @@
       <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
@@ -1653,12 +1669,12 @@
       <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
@@ -1743,8 +1759,8 @@
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>15</v>
@@ -1754,10 +1770,10 @@
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
@@ -1820,10 +1836,10 @@
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
@@ -1861,12 +1877,12 @@
       <c r="A30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
@@ -1989,8 +2005,8 @@
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
         <v>15</v>
@@ -2000,10 +2016,10 @@
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
@@ -2072,10 +2088,10 @@
       <c r="A46" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
@@ -2207,12 +2223,12 @@
       <c r="A56" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
@@ -2265,12 +2281,12 @@
       <c r="A61" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
@@ -2323,8 +2339,8 @@
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
         <v>15</v>
@@ -2334,10 +2350,10 @@
       <c r="A67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="20"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
@@ -2400,10 +2416,10 @@
       <c r="A73" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="25"/>
     </row>
     <row r="74" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
@@ -2456,12 +2472,12 @@
       <c r="A78" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="23"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
     </row>
     <row r="79" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
@@ -2529,12 +2545,12 @@
       <c r="A84" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="25"/>
     </row>
     <row r="85" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
@@ -2700,8 +2716,8 @@
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="25"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="20"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
         <v>15</v>
@@ -2711,10 +2727,10 @@
       <c r="A97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C97" s="20"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
@@ -2783,10 +2799,10 @@
       <c r="A103" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
     </row>
     <row r="104" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="9" t="s">
@@ -2822,75 +2838,75 @@
     </row>
     <row r="106" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B107" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D107" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E106" s="7"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E107" s="10"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>140</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E108" s="10"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E109" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>116</v>
@@ -2899,13 +2915,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>116</v>
@@ -2914,13 +2930,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>116</v>
@@ -2929,13 +2945,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>116</v>
@@ -2944,159 +2960,159 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D117" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E116" s="10"/>
-    </row>
-    <row r="118" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A118" s="8" t="s">
+      <c r="E117" s="10"/>
+    </row>
+    <row r="119" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A119" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B119" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="23"/>
-    </row>
-    <row r="119" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A119" s="9" t="s">
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="25"/>
+    </row>
+    <row r="120" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A120" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C120" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D120" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E120" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A120" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A121" s="10" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E121" s="7"/>
     </row>
-    <row r="123" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A123" s="8" t="s">
+    <row r="122" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A122" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="7"/>
+    </row>
+    <row r="124" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A124" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B123" s="21" t="s">
+      <c r="B124" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="23"/>
-    </row>
-    <row r="124" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A124" s="9" t="s">
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="25"/>
+    </row>
+    <row r="125" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A125" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B125" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C125" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D125" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E125" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A125" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A126" s="10" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>29</v>
@@ -3105,13 +3121,13 @@
     </row>
     <row r="127" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A127" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>29</v>
@@ -3120,13 +3136,13 @@
     </row>
     <row r="128" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>29</v>
@@ -3134,27 +3150,46 @@
       <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A130" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B130" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C130" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D130" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E129" s="10"/>
+      <c r="E130" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B96:C96"/>
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="B61:E61"/>
@@ -3164,15 +3199,11 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
